--- a/www/IndicatorsPerCountry/Switzerland_GDPperCapita_TerritorialRef_1946_2012_CCode_756.xlsx
+++ b/www/IndicatorsPerCountry/Switzerland_GDPperCapita_TerritorialRef_1946_2012_CCode_756.xlsx
@@ -537,13 +537,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Switzerland_GDPperCapita_TerritorialRef_1946_2012_CCode_756.xlsx
+++ b/www/IndicatorsPerCountry/Switzerland_GDPperCapita_TerritorialRef_1946_2012_CCode_756.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="185">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,478 +36,502 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>2142</t>
-  </si>
-  <si>
-    <t>1796</t>
-  </si>
-  <si>
-    <t>2156</t>
-  </si>
-  <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>2283</t>
-  </si>
-  <si>
-    <t>3119</t>
-  </si>
-  <si>
-    <t>2832</t>
-  </si>
-  <si>
-    <t>2339</t>
-  </si>
-  <si>
-    <t>2510</t>
-  </si>
-  <si>
-    <t>2707</t>
-  </si>
-  <si>
-    <t>2583</t>
-  </si>
-  <si>
-    <t>2362</t>
-  </si>
-  <si>
-    <t>2634</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>3014</t>
-  </si>
-  <si>
-    <t>2876</t>
-  </si>
-  <si>
-    <t>2930</t>
-  </si>
-  <si>
-    <t>2595</t>
-  </si>
-  <si>
-    <t>2619</t>
-  </si>
-  <si>
-    <t>3174</t>
-  </si>
-  <si>
-    <t>3590</t>
-  </si>
-  <si>
-    <t>3405</t>
-  </si>
-  <si>
-    <t>3079</t>
-  </si>
-  <si>
-    <t>3244</t>
-  </si>
-  <si>
-    <t>3298</t>
-  </si>
-  <si>
-    <t>3427</t>
-  </si>
-  <si>
-    <t>3577</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>3539</t>
-  </si>
-  <si>
-    <t>4018</t>
-  </si>
-  <si>
-    <t>4455</t>
-  </si>
-  <si>
-    <t>4623</t>
-  </si>
-  <si>
-    <t>4561</t>
-  </si>
-  <si>
-    <t>4708</t>
-  </si>
-  <si>
-    <t>4558</t>
-  </si>
-  <si>
-    <t>4830</t>
-  </si>
-  <si>
-    <t>4816</t>
-  </si>
-  <si>
-    <t>4864</t>
-  </si>
-  <si>
-    <t>4751</t>
-  </si>
-  <si>
-    <t>4944</t>
-  </si>
-  <si>
-    <t>5204</t>
-  </si>
-  <si>
-    <t>5336</t>
-  </si>
-  <si>
-    <t>5501</t>
-  </si>
-  <si>
-    <t>5608</t>
-  </si>
-  <si>
-    <t>5899</t>
-  </si>
-  <si>
-    <t>5636</t>
-  </si>
-  <si>
-    <t>5792</t>
-  </si>
-  <si>
-    <t>5679</t>
-  </si>
-  <si>
-    <t>6067</t>
-  </si>
-  <si>
-    <t>6302</t>
-  </si>
-  <si>
-    <t>6592</t>
-  </si>
-  <si>
-    <t>6557</t>
-  </si>
-  <si>
-    <t>6573</t>
-  </si>
-  <si>
-    <t>6665</t>
-  </si>
-  <si>
-    <t>6885</t>
-  </si>
-  <si>
-    <t>6927</t>
-  </si>
-  <si>
-    <t>7212</t>
-  </si>
-  <si>
-    <t>7093</t>
-  </si>
-  <si>
-    <t>6639</t>
-  </si>
-  <si>
-    <t>6623</t>
-  </si>
-  <si>
-    <t>7058</t>
-  </si>
-  <si>
-    <t>6821</t>
-  </si>
-  <si>
-    <t>6217</t>
-  </si>
-  <si>
-    <t>6176</t>
-  </si>
-  <si>
-    <t>6568</t>
-  </si>
-  <si>
-    <t>5543</t>
-  </si>
-  <si>
-    <t>6487</t>
-  </si>
-  <si>
-    <t>6711</t>
-  </si>
-  <si>
-    <t>7226</t>
-  </si>
-  <si>
-    <t>7361</t>
-  </si>
-  <si>
-    <t>7497</t>
-  </si>
-  <si>
-    <t>7962</t>
-  </si>
-  <si>
-    <t>8353</t>
-  </si>
-  <si>
-    <t>8636</t>
-  </si>
-  <si>
-    <t>8492</t>
-  </si>
-  <si>
-    <t>8437</t>
-  </si>
-  <si>
-    <t>7862</t>
-  </si>
-  <si>
-    <t>8057</t>
-  </si>
-  <si>
-    <t>8086</t>
-  </si>
-  <si>
-    <t>7698</t>
-  </si>
-  <si>
-    <t>7574</t>
-  </si>
-  <si>
-    <t>8360</t>
-  </si>
-  <si>
-    <t>7967</t>
-  </si>
-  <si>
-    <t>8092</t>
-  </si>
-  <si>
-    <t>8139</t>
-  </si>
-  <si>
-    <t>8047</t>
-  </si>
-  <si>
-    <t>7669</t>
-  </si>
-  <si>
-    <t>7643</t>
-  </si>
-  <si>
-    <t>7724</t>
-  </si>
-  <si>
-    <t>7475</t>
-  </si>
-  <si>
-    <t>8997</t>
-  </si>
-  <si>
-    <t>9182</t>
-  </si>
-  <si>
-    <t>9116</t>
-  </si>
-  <si>
-    <t>8757</t>
-  </si>
-  <si>
-    <t>9064</t>
-  </si>
-  <si>
-    <t>9684</t>
-  </si>
-  <si>
-    <t>9630</t>
-  </si>
-  <si>
-    <t>9840</t>
-  </si>
-  <si>
-    <t>10287</t>
-  </si>
-  <si>
-    <t>10867</t>
-  </si>
-  <si>
-    <t>11439</t>
-  </si>
-  <si>
-    <t>11705</t>
-  </si>
-  <si>
-    <t>11297</t>
-  </si>
-  <si>
-    <t>11870</t>
-  </si>
-  <si>
-    <t>12457</t>
-  </si>
-  <si>
-    <t>13099</t>
-  </si>
-  <si>
-    <t>13354</t>
-  </si>
-  <si>
-    <t>13710</t>
-  </si>
-  <si>
-    <t>14191</t>
-  </si>
-  <si>
-    <t>14504</t>
-  </si>
-  <si>
-    <t>14727</t>
-  </si>
-  <si>
-    <t>15010</t>
-  </si>
-  <si>
-    <t>15374</t>
-  </si>
-  <si>
-    <t>16031</t>
-  </si>
-  <si>
-    <t>16904</t>
-  </si>
-  <si>
-    <t>17381</t>
-  </si>
-  <si>
-    <t>17774</t>
-  </si>
-  <si>
-    <t>18204</t>
-  </si>
-  <si>
-    <t>18414</t>
-  </si>
-  <si>
-    <t>17224</t>
-  </si>
-  <si>
-    <t>17170</t>
-  </si>
-  <si>
-    <t>17635</t>
-  </si>
-  <si>
-    <t>17662</t>
-  </si>
-  <si>
-    <t>18050</t>
-  </si>
-  <si>
-    <t>18779</t>
-  </si>
-  <si>
-    <t>18956</t>
-  </si>
-  <si>
-    <t>18560</t>
-  </si>
-  <si>
-    <t>19038</t>
-  </si>
-  <si>
-    <t>19586</t>
-  </si>
-  <si>
-    <t>19786</t>
-  </si>
-  <si>
-    <t>19792</t>
-  </si>
-  <si>
-    <t>20243</t>
-  </si>
-  <si>
-    <t>20935</t>
-  </si>
-  <si>
-    <t>21487.1947144</t>
-  </si>
-  <si>
-    <t>21039.627818</t>
-  </si>
-  <si>
-    <t>20803.539537</t>
-  </si>
-  <si>
-    <t>20590.8129892</t>
-  </si>
-  <si>
-    <t>20685.449329</t>
-  </si>
-  <si>
-    <t>20659.5184302</t>
-  </si>
-  <si>
-    <t>20688.7120468</t>
-  </si>
-  <si>
-    <t>21071.9896816</t>
-  </si>
-  <si>
-    <t>21603.4905316</t>
-  </si>
-  <si>
-    <t>21828.1047432</t>
-  </si>
-  <si>
-    <t>22521.3811943</t>
-  </si>
-  <si>
-    <t>22692.3568693</t>
-  </si>
-  <si>
-    <t>22621.6676406</t>
-  </si>
-  <si>
-    <t>22516.4820418</t>
-  </si>
-  <si>
-    <t>22959.6471742</t>
-  </si>
-  <si>
-    <t>23480.6403664</t>
-  </si>
-  <si>
-    <t>24262.4355352</t>
-  </si>
-  <si>
-    <t>25025.2407617</t>
-  </si>
-  <si>
-    <t>25293.2040393</t>
-  </si>
-  <si>
-    <t>24538.194702</t>
-  </si>
-  <si>
-    <t>25033.2386419</t>
+    <t>2444.22610239988</t>
+  </si>
+  <si>
+    <t>2445.85217664588</t>
+  </si>
+  <si>
+    <t>2379.2794706162</t>
+  </si>
+  <si>
+    <t>2263.80653910788</t>
+  </si>
+  <si>
+    <t>2372.84918976211</t>
+  </si>
+  <si>
+    <t>2419.27101505315</t>
+  </si>
+  <si>
+    <t>2785.79517964569</t>
+  </si>
+  <si>
+    <t>2861.66667495646</t>
+  </si>
+  <si>
+    <t>2894.26277033012</t>
+  </si>
+  <si>
+    <t>2933.63057110256</t>
+  </si>
+  <si>
+    <t>2948.31278589882</t>
+  </si>
+  <si>
+    <t>2822.51362876576</t>
+  </si>
+  <si>
+    <t>2879.02433588928</t>
+  </si>
+  <si>
+    <t>2807.79281136665</t>
+  </si>
+  <si>
+    <t>2792.1978335779</t>
+  </si>
+  <si>
+    <t>2814.7017182278</t>
+  </si>
+  <si>
+    <t>2746.02266573331</t>
+  </si>
+  <si>
+    <t>3053.11450938051</t>
+  </si>
+  <si>
+    <t>3041.02859434905</t>
+  </si>
+  <si>
+    <t>2954.37649900731</t>
+  </si>
+  <si>
+    <t>3063.71744352942</t>
+  </si>
+  <si>
+    <t>3140.48686963731</t>
+  </si>
+  <si>
+    <t>3320.86142093715</t>
+  </si>
+  <si>
+    <t>3322.5070206781</t>
+  </si>
+  <si>
+    <t>3598.77225366935</t>
+  </si>
+  <si>
+    <t>3851.91415709744</t>
+  </si>
+  <si>
+    <t>3630.18782609982</t>
+  </si>
+  <si>
+    <t>3485.83696086339</t>
+  </si>
+  <si>
+    <t>3509.22223480297</t>
+  </si>
+  <si>
+    <t>3869.36628148129</t>
+  </si>
+  <si>
+    <t>3943.41551086938</t>
+  </si>
+  <si>
+    <t>3998.66157597033</t>
+  </si>
+  <si>
+    <t>4194.24861044122</t>
+  </si>
+  <si>
+    <t>4542.09409669602</t>
+  </si>
+  <si>
+    <t>4772.86416899563</t>
+  </si>
+  <si>
+    <t>5036.99075848235</t>
+  </si>
+  <si>
+    <t>5172.16849930844</t>
+  </si>
+  <si>
+    <t>5118.90121485149</t>
+  </si>
+  <si>
+    <t>5137.32807514365</t>
+  </si>
+  <si>
+    <t>5309.32048505504</t>
+  </si>
+  <si>
+    <t>4937.06615271165</t>
+  </si>
+  <si>
+    <t>5270.18587639606</t>
+  </si>
+  <si>
+    <t>5339.8903028207</t>
+  </si>
+  <si>
+    <t>5337.31207346907</t>
+  </si>
+  <si>
+    <t>5632.35874744704</t>
+  </si>
+  <si>
+    <t>5967.24507057932</t>
+  </si>
+  <si>
+    <t>6241.89066472412</t>
+  </si>
+  <si>
+    <t>6427.50876279354</t>
+  </si>
+  <si>
+    <t>6337.31853386101</t>
+  </si>
+  <si>
+    <t>6611.77821356305</t>
+  </si>
+  <si>
+    <t>6398.89186862999</t>
+  </si>
+  <si>
+    <t>6616.154464283</t>
+  </si>
+  <si>
+    <t>6472.23998127461</t>
+  </si>
+  <si>
+    <t>6879.57492621256</t>
+  </si>
+  <si>
+    <t>7184.5796975677</t>
+  </si>
+  <si>
+    <t>7584.05690252643</t>
+  </si>
+  <si>
+    <t>7464.97944589993</t>
+  </si>
+  <si>
+    <t>7507.70959998377</t>
+  </si>
+  <si>
+    <t>7858.35886708257</t>
+  </si>
+  <si>
+    <t>8048.35153312609</t>
+  </si>
+  <si>
+    <t>8043.94146001353</t>
+  </si>
+  <si>
+    <t>8311.78027545233</t>
+  </si>
+  <si>
+    <t>8172.06013176882</t>
+  </si>
+  <si>
+    <t>7595.28553094459</t>
+  </si>
+  <si>
+    <t>7459.25889916841</t>
+  </si>
+  <si>
+    <t>8079.41922593748</t>
+  </si>
+  <si>
+    <t>7840.90390719607</t>
+  </si>
+  <si>
+    <t>7115.60757090518</t>
+  </si>
+  <si>
+    <t>6747.26797745246</t>
+  </si>
+  <si>
+    <t>7363.9596412385</t>
+  </si>
+  <si>
+    <t>5999.14144316014</t>
+  </si>
+  <si>
+    <t>7181.95352888635</t>
+  </si>
+  <si>
+    <t>7670.23768949731</t>
+  </si>
+  <si>
+    <t>8195.52064929545</t>
+  </si>
+  <si>
+    <t>8385.2867756263</t>
+  </si>
+  <si>
+    <t>8656.33106890515</t>
+  </si>
+  <si>
+    <t>9259.93620280581</t>
+  </si>
+  <si>
+    <t>9658.81387249873</t>
+  </si>
+  <si>
+    <t>9920.03754250447</t>
+  </si>
+  <si>
+    <t>9969.3240645101</t>
+  </si>
+  <si>
+    <t>10055.4851996385</t>
+  </si>
+  <si>
+    <t>9752.44296534974</t>
+  </si>
+  <si>
+    <t>10009.108560589</t>
+  </si>
+  <si>
+    <t>9997.37644988818</t>
+  </si>
+  <si>
+    <t>9478.80775609377</t>
+  </si>
+  <si>
+    <t>9301.84625825247</t>
+  </si>
+  <si>
+    <t>10039.2922320319</t>
+  </si>
+  <si>
+    <t>9608.57001962028</t>
+  </si>
+  <si>
+    <t>9836.15191455033</t>
+  </si>
+  <si>
+    <t>9802.37306877984</t>
+  </si>
+  <si>
+    <t>9217.34890451972</t>
+  </si>
+  <si>
+    <t>8739.76696861602</t>
+  </si>
+  <si>
+    <t>8642.97285805962</t>
+  </si>
+  <si>
+    <t>8890.73881147861</t>
+  </si>
+  <si>
+    <t>8839.31526323939</t>
+  </si>
+  <si>
+    <t>10866.098130433</t>
+  </si>
+  <si>
+    <t>11020.9505631674</t>
+  </si>
+  <si>
+    <t>11189.3430725298</t>
+  </si>
+  <si>
+    <t>10943.5440327929</t>
+  </si>
+  <si>
+    <t>11541.0375505428</t>
+  </si>
+  <si>
+    <t>11877.89329403</t>
+  </si>
+  <si>
+    <t>12016.308232061</t>
+  </si>
+  <si>
+    <t>12470.9856694293</t>
+  </si>
+  <si>
+    <t>13171.4062803502</t>
+  </si>
+  <si>
+    <t>13999.4878426012</t>
+  </si>
+  <si>
+    <t>14507.0601800455</t>
+  </si>
+  <si>
+    <t>14667.650420408</t>
+  </si>
+  <si>
+    <t>14644.4582568088</t>
+  </si>
+  <si>
+    <t>15469.5914767422</t>
+  </si>
+  <si>
+    <t>16358.3594046842</t>
+  </si>
+  <si>
+    <t>17307.5627469558</t>
+  </si>
+  <si>
+    <t>17793.9764899977</t>
+  </si>
+  <si>
+    <t>18437.8389135498</t>
+  </si>
+  <si>
+    <t>19195.446462746</t>
+  </si>
+  <si>
+    <t>19802.512491383</t>
+  </si>
+  <si>
+    <t>20224.5381975754</t>
+  </si>
+  <si>
+    <t>20742.2525407236</t>
+  </si>
+  <si>
+    <t>21395.3863755189</t>
+  </si>
+  <si>
+    <t>22307.672926555</t>
+  </si>
+  <si>
+    <t>23478.991767023</t>
+  </si>
+  <si>
+    <t>24486.9781291002</t>
+  </si>
+  <si>
+    <t>25356.9109020439</t>
+  </si>
+  <si>
+    <t>26003.7151749567</t>
+  </si>
+  <si>
+    <t>25718.2703729681</t>
+  </si>
+  <si>
+    <t>24467.991703049</t>
+  </si>
+  <si>
+    <t>24752.9073088838</t>
+  </si>
+  <si>
+    <t>25430.5674454033</t>
+  </si>
+  <si>
+    <t>26158.8002988737</t>
+  </si>
+  <si>
+    <t>26641.0949518161</t>
+  </si>
+  <si>
+    <t>27405.7302362483</t>
+  </si>
+  <si>
+    <t>27729.584967226</t>
+  </si>
+  <si>
+    <t>27660.9484973249</t>
+  </si>
+  <si>
+    <t>28009.3290841041</t>
+  </si>
+  <si>
+    <t>28315.0825944092</t>
+  </si>
+  <si>
+    <t>29416.75224461</t>
+  </si>
+  <si>
+    <t>30847.9942567071</t>
+  </si>
+  <si>
+    <t>31774.3711593065</t>
+  </si>
+  <si>
+    <t>32482.9076702734</t>
+  </si>
+  <si>
+    <t>33315.5867704057</t>
+  </si>
+  <si>
+    <t>34250</t>
+  </si>
+  <si>
+    <t>34128.6419071025</t>
+  </si>
+  <si>
+    <t>34356.8020946259</t>
+  </si>
+  <si>
+    <t>34625.5336467752</t>
+  </si>
+  <si>
+    <t>35423.8278284248</t>
+  </si>
+  <si>
+    <t>36004.2298937464</t>
+  </si>
+  <si>
+    <t>36720.4904727663</t>
+  </si>
+  <si>
+    <t>38165.477352616</t>
+  </si>
+  <si>
+    <t>39890.5375751659</t>
+  </si>
+  <si>
+    <t>41091.6368773432</t>
+  </si>
+  <si>
+    <t>43251.1037536027</t>
+  </si>
+  <si>
+    <t>44398.6387814687</t>
+  </si>
+  <si>
+    <t>44934.3167460536</t>
+  </si>
+  <si>
+    <t>45441.5992803626</t>
+  </si>
+  <si>
+    <t>47263.5967262545</t>
+  </si>
+  <si>
+    <t>49273.9023593869</t>
+  </si>
+  <si>
+    <t>51862.9647705908</t>
+  </si>
+  <si>
+    <t>54509.5396598574</t>
+  </si>
+  <si>
+    <t>56054.8838155727</t>
+  </si>
+  <si>
+    <t>55171.5007076847</t>
+  </si>
+  <si>
+    <t>57219.4983120623</t>
+  </si>
+  <si>
+    <t>58686</t>
+  </si>
+  <si>
+    <t>58674</t>
+  </si>
+  <si>
+    <t>59036</t>
+  </si>
+  <si>
+    <t>59485</t>
+  </si>
+  <si>
+    <t>59307</t>
+  </si>
+  <si>
+    <t>59662</t>
   </si>
   <si>
     <t>Description</t>
@@ -1305,7 +1329,7 @@
         <v>1891.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1322,7 +1346,7 @@
         <v>1892.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1339,7 +1363,7 @@
         <v>1893.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1356,7 +1380,7 @@
         <v>1894.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1373,7 +1397,7 @@
         <v>1895.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +1414,7 @@
         <v>1896.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1407,7 +1431,7 @@
         <v>1897.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1424,7 +1448,7 @@
         <v>1898.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1441,7 +1465,7 @@
         <v>1899.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1458,7 +1482,7 @@
         <v>1900.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1475,7 +1499,7 @@
         <v>1901.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1516,7 @@
         <v>1902.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1509,7 +1533,7 @@
         <v>1903.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1526,7 +1550,7 @@
         <v>1904.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1543,7 +1567,7 @@
         <v>1905.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1560,7 +1584,7 @@
         <v>1906.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1577,7 +1601,7 @@
         <v>1907.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1594,7 +1618,7 @@
         <v>1908.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1611,7 +1635,7 @@
         <v>1909.0</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -1628,7 +1652,7 @@
         <v>1910.0</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62">
@@ -1645,7 +1669,7 @@
         <v>1911.0</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
@@ -1662,7 +1686,7 @@
         <v>1912.0</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
@@ -1679,7 +1703,7 @@
         <v>1913.0</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
@@ -1696,7 +1720,7 @@
         <v>1914.0</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
@@ -1713,7 +1737,7 @@
         <v>1915.0</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67">
@@ -1730,7 +1754,7 @@
         <v>1916.0</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68">
@@ -1747,7 +1771,7 @@
         <v>1917.0</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
@@ -1764,7 +1788,7 @@
         <v>1918.0</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
@@ -1781,7 +1805,7 @@
         <v>1919.0</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
@@ -1798,7 +1822,7 @@
         <v>1920.0</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -1815,7 +1839,7 @@
         <v>1921.0</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -1832,7 +1856,7 @@
         <v>1922.0</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
@@ -1849,7 +1873,7 @@
         <v>1923.0</v>
       </c>
       <c r="E74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
@@ -1866,7 +1890,7 @@
         <v>1924.0</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1907,7 @@
         <v>1925.0</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
@@ -1900,7 +1924,7 @@
         <v>1926.0</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
@@ -1917,7 +1941,7 @@
         <v>1927.0</v>
       </c>
       <c r="E78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -1934,7 +1958,7 @@
         <v>1928.0</v>
       </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -1951,7 +1975,7 @@
         <v>1929.0</v>
       </c>
       <c r="E80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -1968,7 +1992,7 @@
         <v>1930.0</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -1985,7 +2009,7 @@
         <v>1931.0</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83">
@@ -2002,7 +2026,7 @@
         <v>1932.0</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -2019,7 +2043,7 @@
         <v>1933.0</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
@@ -2036,7 +2060,7 @@
         <v>1934.0</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
@@ -2053,7 +2077,7 @@
         <v>1935.0</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
@@ -2070,7 +2094,7 @@
         <v>1936.0</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -2087,7 +2111,7 @@
         <v>1937.0</v>
       </c>
       <c r="E88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -2104,7 +2128,7 @@
         <v>1938.0</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -2121,7 +2145,7 @@
         <v>1939.0</v>
       </c>
       <c r="E90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
@@ -2138,7 +2162,7 @@
         <v>1940.0</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -2155,7 +2179,7 @@
         <v>1941.0</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
@@ -2172,7 +2196,7 @@
         <v>1942.0</v>
       </c>
       <c r="E93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
@@ -2189,7 +2213,7 @@
         <v>1943.0</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
@@ -2206,7 +2230,7 @@
         <v>1944.0</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -2223,7 +2247,7 @@
         <v>1945.0</v>
       </c>
       <c r="E96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
@@ -2240,7 +2264,7 @@
         <v>1946.0</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
@@ -2257,7 +2281,7 @@
         <v>1947.0</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
@@ -2274,7 +2298,7 @@
         <v>1948.0</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
@@ -2291,7 +2315,7 @@
         <v>1949.0</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
@@ -2308,7 +2332,7 @@
         <v>1950.0</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
@@ -2325,7 +2349,7 @@
         <v>1951.0</v>
       </c>
       <c r="E102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
@@ -2342,7 +2366,7 @@
         <v>1952.0</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
@@ -2359,7 +2383,7 @@
         <v>1953.0</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
@@ -2376,7 +2400,7 @@
         <v>1954.0</v>
       </c>
       <c r="E105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
@@ -2393,7 +2417,7 @@
         <v>1955.0</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
@@ -2410,7 +2434,7 @@
         <v>1956.0</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
@@ -2427,7 +2451,7 @@
         <v>1957.0</v>
       </c>
       <c r="E108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
@@ -2444,7 +2468,7 @@
         <v>1958.0</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
@@ -2461,7 +2485,7 @@
         <v>1959.0</v>
       </c>
       <c r="E110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
@@ -2478,7 +2502,7 @@
         <v>1960.0</v>
       </c>
       <c r="E111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
@@ -2495,7 +2519,7 @@
         <v>1961.0</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
@@ -2512,7 +2536,7 @@
         <v>1962.0</v>
       </c>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
@@ -2529,7 +2553,7 @@
         <v>1963.0</v>
       </c>
       <c r="E114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
@@ -2546,7 +2570,7 @@
         <v>1964.0</v>
       </c>
       <c r="E115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
@@ -2563,7 +2587,7 @@
         <v>1965.0</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
@@ -2580,7 +2604,7 @@
         <v>1966.0</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
@@ -2597,7 +2621,7 @@
         <v>1967.0</v>
       </c>
       <c r="E118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
@@ -2614,7 +2638,7 @@
         <v>1968.0</v>
       </c>
       <c r="E119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
@@ -2631,7 +2655,7 @@
         <v>1969.0</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
@@ -2648,7 +2672,7 @@
         <v>1970.0</v>
       </c>
       <c r="E121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
@@ -2665,7 +2689,7 @@
         <v>1971.0</v>
       </c>
       <c r="E122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123">
@@ -2682,7 +2706,7 @@
         <v>1972.0</v>
       </c>
       <c r="E123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
@@ -2699,7 +2723,7 @@
         <v>1973.0</v>
       </c>
       <c r="E124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
@@ -2716,7 +2740,7 @@
         <v>1974.0</v>
       </c>
       <c r="E125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
@@ -2733,7 +2757,7 @@
         <v>1975.0</v>
       </c>
       <c r="E126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127">
@@ -2750,7 +2774,7 @@
         <v>1976.0</v>
       </c>
       <c r="E127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
@@ -2767,7 +2791,7 @@
         <v>1977.0</v>
       </c>
       <c r="E128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
@@ -2784,7 +2808,7 @@
         <v>1978.0</v>
       </c>
       <c r="E129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
@@ -2801,7 +2825,7 @@
         <v>1979.0</v>
       </c>
       <c r="E130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
@@ -2818,7 +2842,7 @@
         <v>1980.0</v>
       </c>
       <c r="E131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
@@ -2835,7 +2859,7 @@
         <v>1981.0</v>
       </c>
       <c r="E132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
@@ -2852,7 +2876,7 @@
         <v>1982.0</v>
       </c>
       <c r="E133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
@@ -2869,7 +2893,7 @@
         <v>1983.0</v>
       </c>
       <c r="E134" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
@@ -2886,7 +2910,7 @@
         <v>1984.0</v>
       </c>
       <c r="E135" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
@@ -2903,7 +2927,7 @@
         <v>1985.0</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
@@ -2920,7 +2944,7 @@
         <v>1986.0</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
@@ -2937,7 +2961,7 @@
         <v>1987.0</v>
       </c>
       <c r="E138" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
@@ -2954,7 +2978,7 @@
         <v>1988.0</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
@@ -2971,7 +2995,7 @@
         <v>1989.0</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141">
@@ -2988,7 +3012,7 @@
         <v>1990.0</v>
       </c>
       <c r="E141" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
@@ -3005,7 +3029,7 @@
         <v>1991.0</v>
       </c>
       <c r="E142" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
@@ -3022,7 +3046,7 @@
         <v>1992.0</v>
       </c>
       <c r="E143" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
@@ -3039,7 +3063,7 @@
         <v>1993.0</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
@@ -3056,7 +3080,7 @@
         <v>1994.0</v>
       </c>
       <c r="E145" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
@@ -3073,7 +3097,7 @@
         <v>1995.0</v>
       </c>
       <c r="E146" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147">
@@ -3090,7 +3114,7 @@
         <v>1996.0</v>
       </c>
       <c r="E147" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
@@ -3107,7 +3131,7 @@
         <v>1997.0</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
@@ -3124,7 +3148,7 @@
         <v>1998.0</v>
       </c>
       <c r="E149" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
@@ -3141,7 +3165,7 @@
         <v>1999.0</v>
       </c>
       <c r="E150" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151">
@@ -3158,7 +3182,7 @@
         <v>2000.0</v>
       </c>
       <c r="E151" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
@@ -3175,7 +3199,7 @@
         <v>2001.0</v>
       </c>
       <c r="E152" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153">
@@ -3192,7 +3216,7 @@
         <v>2002.0</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154">
@@ -3209,7 +3233,7 @@
         <v>2003.0</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155">
@@ -3226,7 +3250,7 @@
         <v>2004.0</v>
       </c>
       <c r="E155" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
@@ -3243,7 +3267,7 @@
         <v>2005.0</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
@@ -3260,7 +3284,7 @@
         <v>2006.0</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158">
@@ -3277,7 +3301,7 @@
         <v>2007.0</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
@@ -3294,7 +3318,7 @@
         <v>2008.0</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
@@ -3311,7 +3335,7 @@
         <v>2009.0</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3352,109 @@
         <v>2010.0</v>
       </c>
       <c r="E161" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3346,50 +3472,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
